--- a/data/long_dif/P18_4-Estudios-long_dif.xlsx
+++ b/data/long_dif/P18_4-Estudios-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>40,06%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,69%</t>
+          <t>25,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>27,96%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,11%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,83%</t>
+          <t>31,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>29,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,42%</t>
+          <t>33,72%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>20,14%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>35,48%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>27,67%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>31,19%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,38; 36,59</t>
+          <t>12,71; 32,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,39; 48,95</t>
+          <t>29,01; 59,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,19; 32,24</t>
+          <t>18,75; 32,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,46; 18,19</t>
+          <t>17,3; 38,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,41; 38,91</t>
+          <t>12,45; 26,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,88; 34,87</t>
+          <t>23,81; 40,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,72; 24,38</t>
+          <t>24,04; 35,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,02; 40,13</t>
+          <t>25,64; 42,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,04; 32,47</t>
+          <t>14,64; 26,25</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>29,35; 46,43</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>23,52; 32,54</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>24,6; 38,12</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>43,44%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>39,31%</t>
+          <t>39,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36,2%</t>
+          <t>49,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,99%</t>
+          <t>41,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,49%</t>
+          <t>40,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>39,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>42,08%</t>
+          <t>34,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>34,26%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>38,31%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39,32%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>40,97%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,35; 43,18</t>
+          <t>16,89; 36,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,42; 57,32</t>
+          <t>24,02; 45,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,43; 46,67</t>
+          <t>31,03; 46,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,65; 44,11</t>
+          <t>37,45; 66,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,62; 49,92</t>
+          <t>31,59; 50,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,91; 50,55</t>
+          <t>32,03; 49,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,74; 40,68</t>
+          <t>33,36; 45,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,74; 51,04</t>
+          <t>26,17; 42,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,21; 45,98</t>
+          <t>26,85; 41,16</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>31,42; 45,22</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>34,12; 43,96</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>33,87; 52,6</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>49,55%</t>
+          <t>52,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>35,0%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>50,24%</t>
+          <t>22,74%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>40,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>27,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>49,92%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>31,85%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>45,6%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>26,21%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>33,0%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>27,85%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>37,25; 60,37</t>
+          <t>41,07; 67,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,69; 29,36</t>
+          <t>14,72; 32,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,76; 48,81</t>
+          <t>26,9; 48,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>43,17; 57,99</t>
+          <t>13,54; 31,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,7; 34,08</t>
+          <t>30,82; 49,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,32; 35,25</t>
+          <t>20,28; 37,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>43,41; 56,45</t>
+          <t>25,82; 37,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,4; 30,11</t>
+          <t>24,53; 40,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,98; 39,11</t>
+          <t>38,5; 54,5</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>20,32; 32,39</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>28,39; 40,29</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>21,78; 33,62</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,35; 24,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,33; 39,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,47; 32,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,1; 21,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,31; 40,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,65; 34,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,75; 21,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,94; 38,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,87; 31,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>43,2%</t>
+          <t>34,26%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>45,71%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>38,92%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>39,57%</t>
+          <t>35,89%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>34,7%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>41,1%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
+          <t>19,33%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>35,08%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>27,94%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22,39%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,79; 39,97</t>
+          <t>15,2; 27,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37,64; 48,9</t>
+          <t>27,66; 41,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,58; 50,89</t>
+          <t>22,47; 31,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30,74; 39,73</t>
+          <t>18,14; 29,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,01; 43,74</t>
+          <t>13,73; 22,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>35,52; 43,87</t>
+          <t>30,41; 41,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,44; 38,43</t>
+          <t>25,41; 33,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,23; 44,72</t>
+          <t>17,5; 26,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>39,0; 46,15</t>
+          <t>15,95; 24,03</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>30,66; 39,3</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>25,01; 31,36</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18,88; 26,36</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>46,64%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>41,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>45,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>47,18%</t>
+          <t>46,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>38,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>39,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>46,91%</t>
+          <t>39,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>41,68%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>37,13%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>40,11%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>42,58%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>44,33%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>41,28; 52,92</t>
+          <t>29,52; 44,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,31; 29,21</t>
+          <t>34,28; 47,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,62; 32,79</t>
+          <t>39,8; 50,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>42,84; 52,16</t>
+          <t>40,16; 54,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,14; 30,6</t>
+          <t>32,94; 44,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,98; 35,02</t>
+          <t>33,26; 44,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>43,02; 50,51</t>
+          <t>35,52; 44,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>21,03; 28,47</t>
+          <t>36,97; 47,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,05; 32,65</t>
+          <t>32,51; 42,46</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>36,04; 44,23</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>38,99; 46,03</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>39,77; 48,58</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>43,55%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>36,47%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>41,98%</t>
+          <t>43,53%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>30,94%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>39,25%</t>
+          <t>36,85%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>43,54%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>24,81%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>29,48%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>33,28%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,75; 13,67</t>
+          <t>36,05; 49,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>30,68; 43,26</t>
+          <t>19,25; 32,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,99; 32,96</t>
+          <t>23,24; 34,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,87; 18,41</t>
+          <t>24,16; 36,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>37,09; 47,7</t>
+          <t>37,6; 49,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,86; 31,55</t>
+          <t>20,32; 30,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,75; 14,86</t>
+          <t>27,28; 35,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,33; 43,56</t>
+          <t>31,99; 42,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,8; 30,85</t>
+          <t>38,38; 48,03</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>21,22; 29,89</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>26,58; 32,88</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>29,49; 37,42</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>42,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>47,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>45,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>41,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>38,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>45,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>41,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>43,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>45,66%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>36,24; 48,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>41,03; 54,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>40,66; 51,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>36,16; 47,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>33,66; 43,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>40,64; 50,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>37,96; 45,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>39,01; 47,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>42,06; 49,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>47,85%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>37,04%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>44,31%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>42,59%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>46,04%</t>
+          <t>27,11%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>10,1%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>39,91%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>27,28%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>23,68%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>41,66; 54,3</t>
+          <t>4,97; 13,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12,43; 21,87</t>
+          <t>30,71; 44,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>21,05; 31,4</t>
+          <t>22,66; 32,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>39,34; 49,63</t>
+          <t>20,21; 36,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,23; 23,4</t>
+          <t>7,93; 15,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,17; 31,51</t>
+          <t>37,01; 48,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>42,25; 50,49</t>
+          <t>23,03; 31,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,88; 21,15</t>
+          <t>17,5; 26,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23,87; 30,21</t>
+          <t>7,63; 13,28</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>35,59; 44,4</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>24,06; 30,35</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>19,96; 28,74</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>40,87%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>34,73%</t>
+          <t>45,5%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>45,94%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>45,67%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>45,98%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>38,09%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>45,45%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>35,84%</t>
+          <t>44,5%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>43,62%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>41,67%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>45,69%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>45,06%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>13,59; 20,48</t>
+          <t>33,97; 48,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>30,48; 39,13</t>
+          <t>38,64; 52,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>24,03; 30,08</t>
+          <t>39,85; 51,44</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>13,52; 18,17</t>
+          <t>37,79; 52,2</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>33,72; 39,89</t>
+          <t>39,57; 52,41</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,89; 31,82</t>
+          <t>32,52; 44,04</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>13,96; 18,05</t>
+          <t>40,82; 49,95</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>33,19; 38,37</t>
+          <t>39,27; 49,95</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>25,69; 30,07</t>
+          <t>39,05; 48,17</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>37,24; 45,98</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>41,79; 49,25</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>40,27; 49,35</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>36,1%</t>
+          <t>50,58%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>44,59%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>44,49%</t>
+          <t>26,6%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>39,41%</t>
+          <t>42,58%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>41,91%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>36,74%</t>
+          <t>27,44%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>41,96%</t>
+          <t>33,88%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>43,17%</t>
+          <t>46,28%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>18,42%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>27,04%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>31,26%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>32,38; 40,28</t>
+          <t>42,51; 58,09</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>40,35; 49,04</t>
+          <t>12,79; 23,11</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>41,11; 47,93</t>
+          <t>21,87; 33,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>34,23; 40,6</t>
+          <t>22,7; 34,1</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>35,74; 42,67</t>
+          <t>36,38; 49,02</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>38,94; 44,89</t>
+          <t>15,05; 24,26</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>34,11; 39,25</t>
+          <t>23,63; 32,04</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>39,33; 44,56</t>
+          <t>28,87; 39,37</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>40,74; 45,37</t>
+          <t>41,52; 51,23</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>15,16; 22,14</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>23,7; 30,64</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>27,45; 35,97</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>47,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>47,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>23,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>47,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>29,06%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2228,1179 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>43,48; 51,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>17,49; 24,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>25,4; 32,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>43,89; 50,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>21,15; 26,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>26,67; 31,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>44,68; 50,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>20,16; 24,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>27,05; 31,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>13,88%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>33,63%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>16,17%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>38,7%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>14,99%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>35,97%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>10,58; 17,82</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>25,98; 41,4</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>12,93; 20,23</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>31,12; 47,35</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>12,77; 17,9</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>30,1; 41,72</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>37,19%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>50,82%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>31,41%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>36,21%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>34,39%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>44,08%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>31,69; 44,01</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>42,37; 60,37</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>26,46; 36,17</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>28,62; 44,28</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>30,76; 38,64</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>37,73; 50,86</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>48,93%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>15,55%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>52,41%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>25,08%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>50,62%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>19,95%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>43,12; 55,11</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>10,69; 21,62</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>47,65; 57,56</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>18,87; 32,37</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>46,45; 54,54</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>15,66; 24,43</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>15,53%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>35,64%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>26,66%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>25,07%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>16,0%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>37,66%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>28,63%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>24,44%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>15,77%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>36,66%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>27,67%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>24,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>13,27; 18,58</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>31,85; 40,17</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>23,67; 29,95</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>21,22; 29,62</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>13,94; 18,26</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>34,5; 40,54</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>26,26; 31,63</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>21,52; 28,14</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>14,18; 17,66</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>34,17; 39,74</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>25,7; 29,72</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>22,11; 27,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>36,43%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>43,67%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>44,36%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>46,9%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>37,78%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>38,5%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>41,48%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>40,94%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>37,12%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>41,05%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>42,89%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>43,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>32,98; 40,7</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>39,59; 47,66</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>40,53; 47,65</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>41,96; 52,28</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>35,15; 41,18</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>35,28; 41,8</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>38,66; 44,39</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>37,37; 44,37</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>34,73; 39,68</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>38,43; 43,82</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>40,46; 45,04</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>40,82; 46,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>48,04%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>20,69%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>28,98%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>28,03%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>46,22%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>23,83%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>29,89%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>34,62%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>47,11%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>22,28%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>29,45%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>31,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>44,39; 51,8</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>17,76; 24,53</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>25,35; 32,63</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>24,18; 32,21</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>43,05; 49,19</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>21,18; 26,96</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>27,11; 32,66</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>31,33; 38,38</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>44,63; 49,6</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>20,15; 24,68</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>27,16; 31,85</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>28,99; 34,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
